--- a/Гаврюшин школота/bin/Debug/Возр-пол Самара.xlsx
+++ b/Гаврюшин школота/bin/Debug/Возр-пол Самара.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Диссертация\НОВОЕ НА ПУБЛИКАЦИЮ\Программа ЭВМ\ФИЗРАЗВ\Алгоритм\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Илья\Documents\Visual Studio 2015\Projects\Гаврюшин школота\Гаврюшин школота\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="13395" windowHeight="5190" tabRatio="771"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="13395" windowHeight="5190" tabRatio="771" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="7-Ж" sheetId="98" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="99" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="body">#REF!</definedName>
@@ -54,11 +55,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +93,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -119,7 +127,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -131,6 +139,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка 2" xfId="1"/>
@@ -440,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,4 +2173,373 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9">
+        <v>35192</v>
+      </c>
+      <c r="B1" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C1" s="4">
+        <v>115</v>
+      </c>
+      <c r="D1" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>35887</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C2" s="4">
+        <v>126</v>
+      </c>
+      <c r="D2" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>35939</v>
+      </c>
+      <c r="B3" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C3" s="3">
+        <v>123</v>
+      </c>
+      <c r="D3" s="7">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>36232</v>
+      </c>
+      <c r="B4" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C4" s="3">
+        <v>113</v>
+      </c>
+      <c r="D4" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>36237</v>
+      </c>
+      <c r="B5" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C5" s="3">
+        <v>120</v>
+      </c>
+      <c r="D5" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>36729</v>
+      </c>
+      <c r="B6" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C6" s="4">
+        <v>124</v>
+      </c>
+      <c r="D6" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>36746</v>
+      </c>
+      <c r="B7" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C7" s="3">
+        <v>120</v>
+      </c>
+      <c r="D7" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>37094</v>
+      </c>
+      <c r="B8" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C8" s="3">
+        <v>128</v>
+      </c>
+      <c r="D8" s="3">
+        <v>23.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>37162</v>
+      </c>
+      <c r="B9" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C9" s="3">
+        <v>126</v>
+      </c>
+      <c r="D9" s="7">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>37345</v>
+      </c>
+      <c r="B10" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C10" s="3">
+        <v>120</v>
+      </c>
+      <c r="D10" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>37466</v>
+      </c>
+      <c r="B11" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C11" s="3">
+        <v>116</v>
+      </c>
+      <c r="D11" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>37893</v>
+      </c>
+      <c r="B12" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C12" s="3">
+        <v>120</v>
+      </c>
+      <c r="D12" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>37982</v>
+      </c>
+      <c r="B13" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C13" s="3">
+        <v>128</v>
+      </c>
+      <c r="D13" s="7">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>38832</v>
+      </c>
+      <c r="B14" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C14" s="4">
+        <v>130</v>
+      </c>
+      <c r="D14" s="8">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>40336</v>
+      </c>
+      <c r="B15" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C15" s="4">
+        <v>117</v>
+      </c>
+      <c r="D15" s="8">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>40354</v>
+      </c>
+      <c r="B16" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C16" s="3">
+        <v>124</v>
+      </c>
+      <c r="D16" s="7">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>40824</v>
+      </c>
+      <c r="B17" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C17" s="3">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="D17" s="3">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>41088</v>
+      </c>
+      <c r="B18" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C18" s="3">
+        <v>117</v>
+      </c>
+      <c r="D18" s="7">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>41099</v>
+      </c>
+      <c r="B19" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C19" s="4">
+        <v>125</v>
+      </c>
+      <c r="D19" s="8">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>41301</v>
+      </c>
+      <c r="B20" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C20" s="3">
+        <v>130</v>
+      </c>
+      <c r="D20" s="7">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>41522</v>
+      </c>
+      <c r="B21" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C21" s="3">
+        <v>118</v>
+      </c>
+      <c r="D21" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>41911</v>
+      </c>
+      <c r="B22" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C22" s="3">
+        <v>114</v>
+      </c>
+      <c r="D22" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>42122</v>
+      </c>
+      <c r="B23" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C23" s="3">
+        <v>118</v>
+      </c>
+      <c r="D23" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>42146</v>
+      </c>
+      <c r="B24" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C24" s="3">
+        <v>125</v>
+      </c>
+      <c r="D24" s="7">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>42243</v>
+      </c>
+      <c r="B25" s="5">
+        <v>43174</v>
+      </c>
+      <c r="C25" s="3">
+        <v>122</v>
+      </c>
+      <c r="D25" s="7">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>